--- a/admissionsED.xlsx
+++ b/admissionsED.xlsx
@@ -470,7 +470,7 @@
   <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5882,7 +5882,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5890,7 +5889,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD7BAF29-4CFF-4C8D-BDD0-A11F86CDC52F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A7A4A62-2F96-4ACC-A579-82D85609F9D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.datacontract.org/2004/07/Longview.Office.Excel.Model"/>
     <ds:schemaRef ds:uri="http://schemas.datacontract.org/2004/07/Longview.Office.AddIn.Models"/>
